--- a/Docs/Tablas Lab 4_maquina 2.xlsx
+++ b/Docs/Tablas Lab 4_maquina 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\EDA\LabSorts-S04-G03\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10172B0E-FAA3-423B-86BC-8903E263A62A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C6895C1-AF6D-48C6-B440-13878E8E7A00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
@@ -664,22 +664,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>557.64</c:v>
+                  <c:v>538.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2364.6799999999998</c:v>
+                  <c:v>2364.8200000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8593.26</c:v>
+                  <c:v>8592.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40539.65</c:v>
+                  <c:v>41789.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>161325.88</c:v>
+                  <c:v>162325.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>783197.77</c:v>
+                  <c:v>782574.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1800000</c:v>
@@ -832,22 +832,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>666.32</c:v>
+                  <c:v>677.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2789.74</c:v>
+                  <c:v>2790.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9981.25</c:v>
+                  <c:v>9872.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40256.1</c:v>
+                  <c:v>41460.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>230776.98</c:v>
+                  <c:v>231376.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1171897.29</c:v>
+                  <c:v>1174897.29</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1800000</c:v>
@@ -999,34 +999,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>41.92</c:v>
+                  <c:v>43.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.5</c:v>
+                  <c:v>61.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.38</c:v>
+                  <c:v>152.88999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>370.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>874.84</c:v>
+                  <c:v>862.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1885.63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4661.7299999999996</c:v>
+                  <c:v>4731.7299999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11420.82</c:v>
+                  <c:v>11541.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31207.01</c:v>
+                  <c:v>31434.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49567.83</c:v>
+                  <c:v>50127.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,22 +2495,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>557.64</c:v>
+                  <c:v>538.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2364.6799999999998</c:v>
+                  <c:v>2364.8200000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8593.26</c:v>
+                  <c:v>8592.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40539.65</c:v>
+                  <c:v>41789.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>161325.88</c:v>
+                  <c:v>162325.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>783197.77</c:v>
+                  <c:v>782574.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1800000</c:v>
@@ -3234,22 +3234,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>666.32</c:v>
+                  <c:v>677.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2789.74</c:v>
+                  <c:v>2790.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9981.25</c:v>
+                  <c:v>9872.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40256.1</c:v>
+                  <c:v>41460.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>230776.98</c:v>
+                  <c:v>231376.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1171897.29</c:v>
+                  <c:v>1174897.29</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1800000</c:v>
@@ -3973,34 +3973,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>41.92</c:v>
+                  <c:v>43.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.5</c:v>
+                  <c:v>61.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.38</c:v>
+                  <c:v>152.88999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>370.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>874.84</c:v>
+                  <c:v>862.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1885.63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4661.7299999999996</c:v>
+                  <c:v>4731.7299999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11420.82</c:v>
+                  <c:v>11541.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31207.01</c:v>
+                  <c:v>31434.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49567.83</c:v>
+                  <c:v>50127.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7828,7 +7828,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7858,13 +7858,13 @@
         <v>1000</v>
       </c>
       <c r="B2" s="4">
-        <v>557.64</v>
+        <v>538.02</v>
       </c>
       <c r="C2" s="4">
-        <v>666.32</v>
+        <v>677.04</v>
       </c>
       <c r="D2" s="4">
-        <v>41.92</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7872,13 +7872,13 @@
         <v>2000</v>
       </c>
       <c r="B3" s="4">
-        <v>2364.6799999999998</v>
+        <v>2364.8200000000002</v>
       </c>
       <c r="C3" s="4">
-        <v>2789.74</v>
+        <v>2790.12</v>
       </c>
       <c r="D3" s="4">
-        <v>62.5</v>
+        <v>61.45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7886,13 +7886,13 @@
         <v>4000</v>
       </c>
       <c r="B4" s="4">
-        <v>8593.26</v>
+        <v>8592.98</v>
       </c>
       <c r="C4" s="4">
-        <v>9981.25</v>
+        <v>9872.73</v>
       </c>
       <c r="D4" s="4">
-        <v>153.38</v>
+        <v>152.88999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7900,10 +7900,10 @@
         <v>8000</v>
       </c>
       <c r="B5" s="4">
-        <v>40539.65</v>
+        <v>41789.71</v>
       </c>
       <c r="C5" s="4">
-        <v>40256.1</v>
+        <v>41460.43</v>
       </c>
       <c r="D5" s="4">
         <v>370.16</v>
@@ -7914,13 +7914,13 @@
         <v>16000</v>
       </c>
       <c r="B6" s="4">
-        <v>161325.88</v>
+        <v>162325.31</v>
       </c>
       <c r="C6" s="4">
-        <v>230776.98</v>
+        <v>231376.38</v>
       </c>
       <c r="D6" s="4">
-        <v>874.84</v>
+        <v>862.64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7928,10 +7928,10 @@
         <v>32000</v>
       </c>
       <c r="B7" s="4">
-        <v>783197.77</v>
+        <v>782574.32</v>
       </c>
       <c r="C7" s="4">
-        <v>1171897.29</v>
+        <v>1174897.29</v>
       </c>
       <c r="D7" s="4">
         <v>1885.63</v>
@@ -7948,7 +7948,7 @@
         <v>1800000</v>
       </c>
       <c r="D8" s="4">
-        <v>4661.7299999999996</v>
+        <v>4731.7299999999996</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7962,7 +7962,7 @@
         <v>1800000</v>
       </c>
       <c r="D9" s="4">
-        <v>11420.82</v>
+        <v>11541.91</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7976,7 +7976,7 @@
         <v>1800000</v>
       </c>
       <c r="D10" s="4">
-        <v>31207.01</v>
+        <v>31434.42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7990,7 +7990,7 @@
         <v>1800000</v>
       </c>
       <c r="D11" s="4">
-        <v>49567.83</v>
+        <v>50127.97</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8157,18 +8157,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8383,18 +8383,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
